--- a/doc/SAT_TEMPLATE_v0_1.xlsx
+++ b/doc/SAT_TEMPLATE_v0_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderssandstrom/ecmc_bifrost_slits_sat/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602C8946-D9AF-F54F-ABA1-6C0B969D976F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DEF624-2609-1848-988C-36D099BD9DFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51800" yWindow="8260" windowWidth="33740" windowHeight="19040" activeTab="7" xr2:uid="{D3CCAE6E-ED0A-164C-8A50-F00EEBDAA32D}"/>
+    <workbookView xWindow="37540" yWindow="1940" windowWidth="27800" windowHeight="20660" activeTab="1" xr2:uid="{D3CCAE6E-ED0A-164C-8A50-F00EEBDAA32D}"/>
   </bookViews>
   <sheets>
     <sheet name="11358_1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="79">
   <si>
     <t>General Inspection</t>
   </si>
@@ -251,13 +251,31 @@
   </si>
   <si>
     <t>Pins offsted one position in lemo connector</t>
+  </si>
+  <si>
+    <t>Test result is fullfilling requirement.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The test/observation needs further investigation.</t>
+  </si>
+  <si>
+    <t>The test/observation is not fulfilling requirement.</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,22 +285,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -290,7 +300,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -341,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -752,6 +762,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -812,237 +837,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,406 +1465,408 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B2" sqref="B2:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="58"/>
+    <col min="2" max="2" width="10.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="58" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="81" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>11358</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="2:6" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" s="60" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-    </row>
-    <row r="9" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="A20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="1:6" s="58" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="26" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50" t="s">
+    <row r="22" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="1:6" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" s="58" customFormat="1" ht="40" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="44">
         <v>6.3</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+    <row r="24" spans="1:6" s="58" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="48">
         <v>42</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="59" t="s">
+    <row r="25" spans="1:6" s="74" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="73"/>
+      <c r="B25" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="51">
         <v>40</v>
       </c>
-      <c r="E26" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
+      <c r="E26" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="54">
         <v>10</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="E27" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="48">
         <v>10</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="41" t="s">
+      <c r="E28" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="41"/>
+    </row>
+    <row r="29" spans="1:6" s="79" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="73"/>
+      <c r="B29" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="48">
         <v>20</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
+      <c r="E29" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="41"/>
+    </row>
+    <row r="30" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="44">
         <v>20</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="E30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="46" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1770,429 +1877,446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91EDC4E-2031-9045-973C-F1B4515431EE}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="58"/>
+    <col min="2" max="2" width="10.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="58" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="81" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>11358</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="2:6" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" s="60" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="54" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="63" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
+    <row r="10" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B10" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="71" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="E11" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="58"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="B17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="B18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="B19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C20" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-    </row>
-    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="A22" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="26" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50" t="s">
+    <row r="24" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="C24" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D24" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-    </row>
-    <row r="24" spans="1:9" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="40" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D25" s="44">
         <v>1.8</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="24" t="s">
+      <c r="E25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+    <row r="26" spans="1:9" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C26" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D26" s="48">
         <v>61</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="26" t="s">
+      <c r="E26" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" s="58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="59" t="s">
+    <row r="27" spans="1:9" s="74" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="73"/>
+      <c r="B27" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B28" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D28" s="51">
         <v>36</v>
       </c>
-      <c r="E27" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="58"/>
-    </row>
-    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="s">
+      <c r="E28" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C29" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D29" s="54">
         <v>6</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
+      <c r="E29" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C30" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D30" s="48">
         <v>34</v>
       </c>
-      <c r="E29" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="41" t="s">
+      <c r="E30" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="41"/>
+    </row>
+    <row r="31" spans="1:9" s="79" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="73"/>
+      <c r="B31" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C31" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D31" s="48">
         <v>21</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
+      <c r="E31" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D32" s="44">
         <v>37</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="E32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="46" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2206,427 +2330,429 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B2" sqref="B2:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="58"/>
+    <col min="2" max="2" width="10.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="58" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="81" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>11359</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" s="60" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
+    <row r="7" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-    </row>
-    <row r="8" spans="1:6" s="78" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+    </row>
+    <row r="8" spans="1:6" s="67" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-    </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="78" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:6" s="67" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="63" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="1:6" s="58" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B21" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="26" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+    <row r="22" spans="1:6" s="58" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50" t="s">
+    <row r="23" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-    </row>
-    <row r="24" spans="1:6" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" s="58" customFormat="1" ht="40" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="44">
         <v>3</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="24" t="s">
+      <c r="E24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+    <row r="25" spans="1:6" s="58" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="48">
         <v>36</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="59" t="s">
+    <row r="26" spans="1:6" s="74" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="73"/>
+      <c r="B26" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="51">
         <v>17</v>
       </c>
-      <c r="E27" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="58"/>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="s">
+      <c r="E27" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="54">
         <v>12</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
+      <c r="E28" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="32"/>
+    </row>
+    <row r="29" spans="1:6" s="73" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B29" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="76">
         <v>171</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="41" t="s">
+    <row r="30" spans="1:6" s="79" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="73"/>
+      <c r="B30" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="78">
         <v>11</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
+      <c r="E30" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="80">
         <v>37</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="E31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2640,406 +2766,408 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B2" sqref="B2:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="58"/>
+    <col min="2" max="2" width="10.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="58" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="81" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>11359</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="2:6" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" s="60" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-    </row>
-    <row r="9" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="63" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="1:6" s="58" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="26" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50" t="s">
+    <row r="22" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="1:6" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" s="58" customFormat="1" ht="40" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="44">
         <v>2</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+    <row r="24" spans="1:6" s="58" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="48">
         <v>30</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="59" t="s">
+    <row r="25" spans="1:6" s="74" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="73"/>
+      <c r="B25" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="51">
         <v>5</v>
       </c>
-      <c r="E26" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
+      <c r="E26" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="54">
         <v>7</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="E27" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="82">
         <v>4</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="41" t="s">
+      <c r="E28" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="41"/>
+    </row>
+    <row r="29" spans="1:6" s="79" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="73"/>
+      <c r="B29" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="78">
         <v>7</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
+      <c r="E29" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="80">
         <v>26</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="E30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3053,370 +3181,372 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B2" sqref="B2:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="58"/>
+    <col min="2" max="2" width="10.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="58" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="81" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>11360</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="2:6" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" s="60" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-    </row>
-    <row r="9" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="85" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="58"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="89" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="58"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="64" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="67"/>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="59" t="s">
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" s="74" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="73"/>
+      <c r="B25" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="50" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="91"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
+      <c r="E26" s="85"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="53" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="92"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="E27" s="93"/>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="25" t="s">
+      <c r="D28" s="94"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="41"/>
+    </row>
+    <row r="29" spans="1:6" s="79" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="73"/>
+      <c r="B29" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="D29" s="95"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="41"/>
+    </row>
+    <row r="30" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="24"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3428,370 +3558,372 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="58"/>
+    <col min="2" max="2" width="10.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="58" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="81" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>11360</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="2:6" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" s="60" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-    </row>
-    <row r="9" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="85" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="58"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="89" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="58"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="64" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="67"/>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="59" t="s">
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" s="74" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="73"/>
+      <c r="B25" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="50" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="91"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
+      <c r="E26" s="85"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="53" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="92"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="E27" s="93"/>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="25" t="s">
+      <c r="D28" s="94"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="41"/>
+    </row>
+    <row r="29" spans="1:6" s="79" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="73"/>
+      <c r="B29" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="D29" s="95"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="41"/>
+    </row>
+    <row r="30" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="24"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3803,388 +3935,390 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B2" sqref="B2:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="58"/>
+    <col min="2" max="2" width="10.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="58" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="81" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>11361</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="2:6" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" s="60" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-    </row>
-    <row r="9" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="2:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="2:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" s="58" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" s="58" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="26" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50" t="s">
+    <row r="21" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-    </row>
-    <row r="22" spans="1:6" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" s="58" customFormat="1" ht="40" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="44">
         <v>5</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24" t="s">
+      <c r="E22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+    <row r="23" spans="1:6" s="58" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="48">
         <v>30</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="59" t="s">
+    <row r="24" spans="1:6" s="74" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="73"/>
+      <c r="B24" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-    </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="51">
         <v>6</v>
       </c>
-      <c r="E25" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="58"/>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
+      <c r="E25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="54">
         <v>2</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
+      <c r="E26" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="32"/>
+    </row>
+    <row r="27" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="82">
         <v>19</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="41" t="s">
+      <c r="E27" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" spans="1:6" s="79" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="73"/>
+      <c r="B28" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="78">
         <v>11</v>
       </c>
-      <c r="E28" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="41" t="s">
+      <c r="E28" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:6" s="58" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="80">
         <v>3</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="E29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4195,392 +4329,439 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C810FA-98AB-5443-9EC3-79B92CD6638B}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="58"/>
+    <col min="2" max="2" width="10.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="58" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="81" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="58"/>
+    <col min="11" max="11" width="42.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>11361</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="2:6" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" s="60" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-    </row>
-    <row r="9" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="2:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="26" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50" t="s">
+    <row r="21" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-    </row>
-    <row r="22" spans="1:6" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="40" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="44">
         <v>3</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24" t="s">
+      <c r="E22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+    <row r="23" spans="1:11" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="48">
         <v>36</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="59" t="s">
+    <row r="24" spans="1:11" s="74" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="73"/>
+      <c r="B24" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-    </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="51">
         <v>21</v>
       </c>
-      <c r="E25" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="58"/>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
+      <c r="E25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="54">
         <v>4</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
+      <c r="E26" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="32"/>
+    </row>
+    <row r="27" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="82">
         <v>21</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="25" t="s">
+      <c r="E27" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" spans="1:11" s="79" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="73"/>
+      <c r="B28" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="48">
         <v>7</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+      <c r="E28" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="41"/>
+    </row>
+    <row r="29" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="44">
         <v>30</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24" t="s">
+      <c r="E29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="46" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="97"/>
+      <c r="J32" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I33" s="100">
+        <v>1</v>
+      </c>
+      <c r="J33" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I34" s="103">
+        <v>2</v>
+      </c>
+      <c r="J34" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="106">
+        <v>3</v>
+      </c>
+      <c r="J35" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="108" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
